--- a/data/trans_bre/DCD-Edad-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Edad-trans_bre.xlsx
@@ -627,7 +627,7 @@
         <v>6.212175391072186</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>8.884175946807423</v>
+        <v>8.884175946807421</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.584260596067208</v>
+        <v>1.521001734542795</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.226591964542885</v>
+        <v>1.242066216312508</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.756887804532802</v>
+        <v>9.564175660971015</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.5571056020687163</v>
+        <v>0.4894681084910558</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3114665991864055</v>
+        <v>0.1424354751882975</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>2.072339161158897</v>
+        <v>2.318246042044969</v>
       </c>
     </row>
     <row r="6">
@@ -664,20 +664,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.877577391533659</v>
+        <v>6.259544754567975</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.042267214179507</v>
+        <v>4.951043640119082</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21.38842111386335</v>
+        <v>22.4459318585724</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>11.72386204029999</v>
+        <v>13.25191621628667</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>49.33906028031745</v>
+        <v>50.54122575843248</v>
       </c>
     </row>
     <row r="7">
@@ -718,22 +718,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.679325315084629</v>
+        <v>1.56743296928219</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.185561728421255</v>
+        <v>1.008617760440444</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.848881247295441</v>
+        <v>4.460142552299633</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4582383205836771</v>
+        <v>0.3127265504806833</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2057366769752887</v>
+        <v>0.2070277646171673</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5978674939355838</v>
+        <v>0.5163770061834824</v>
       </c>
     </row>
     <row r="9">
@@ -744,22 +744,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.491832117648505</v>
+        <v>6.649562893707518</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.405294773812155</v>
+        <v>6.236000274515089</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.69009646682958</v>
+        <v>12.67396080941909</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.480588686834647</v>
+        <v>3.372200211916334</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.243860873896943</v>
+        <v>3.350514971084662</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.879114593774581</v>
+        <v>3.736453551160068</v>
       </c>
     </row>
     <row r="10">
@@ -800,22 +800,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.581724503902332</v>
+        <v>4.81733490590342</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.510603267423332</v>
+        <v>2.596649475503861</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.460140434426887</v>
+        <v>7.570795092538771</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.7819128824258363</v>
+        <v>0.8182695494635182</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4621539579708965</v>
+        <v>0.5101726416660743</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7633790822938771</v>
+        <v>0.8433319565447156</v>
       </c>
     </row>
     <row r="12">
@@ -826,22 +826,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.67223992850196</v>
+        <v>10.54411491335238</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.902853055206443</v>
+        <v>7.757729228165855</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.02614688198796</v>
+        <v>13.89492959699686</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.510438940529184</v>
+        <v>3.475301333053812</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.938789175662818</v>
+        <v>2.71211522320261</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.605633499896078</v>
+        <v>2.59771450165239</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>6.41987274570978</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11.06710129523031</v>
+        <v>11.06710129523032</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.186283245562314</v>
@@ -871,7 +871,7 @@
         <v>0.9932832377934077</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8142478000487398</v>
+        <v>0.8142478000487401</v>
       </c>
     </row>
     <row r="14">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.301039777013571</v>
+        <v>4.266703232146718</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.234863590898744</v>
+        <v>2.955406594230575</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.4267515743595</v>
+        <v>7.138870739707462</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5438056575015423</v>
+        <v>0.4886318224776804</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3850204985862068</v>
+        <v>0.3663967568536734</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4666963129203144</v>
+        <v>0.4480622039251351</v>
       </c>
     </row>
     <row r="15">
@@ -908,22 +908,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.3891097790856</v>
+        <v>11.39748674545785</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.76480110108472</v>
+        <v>9.59589525870299</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.2979693342395</v>
+        <v>14.54174541388624</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.258526484953989</v>
+        <v>2.206584984328484</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.839827916460882</v>
+        <v>1.948118863633489</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.230214479217515</v>
+        <v>1.304936727675162</v>
       </c>
     </row>
     <row r="16">
@@ -964,22 +964,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.065093117348576</v>
+        <v>8.232232500897757</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7131056024017161</v>
+        <v>0.6574834210018002</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.80261983631894</v>
+        <v>7.5275026709329</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.7616797606363863</v>
+        <v>0.7555041702103557</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03542317081021393</v>
+        <v>0.04253622013755581</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3537860783470094</v>
+        <v>0.3479492195440358</v>
       </c>
     </row>
     <row r="18">
@@ -990,22 +990,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.65279062017633</v>
+        <v>17.97277052425076</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.54333405223062</v>
+        <v>10.65757083049972</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.46310141327207</v>
+        <v>16.08021414531997</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.676549541283967</v>
+        <v>2.674567661466028</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.038371512794257</v>
+        <v>1.068156159458995</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9770698861056284</v>
+        <v>0.9419841178660209</v>
       </c>
     </row>
     <row r="19">
@@ -1035,7 +1035,7 @@
         <v>0.8034409045353573</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8720744548918915</v>
+        <v>0.8720744548918917</v>
       </c>
     </row>
     <row r="20">
@@ -1046,22 +1046,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.838685658114778</v>
+        <v>6.568649929082561</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.541979592619582</v>
+        <v>2.19884591596778</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10.841099150302</v>
+        <v>10.89533451825154</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.3650163042874042</v>
+        <v>0.340435990668954</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2091575429393314</v>
+        <v>0.1567571587778507</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5098703162851954</v>
+        <v>0.5323216991370505</v>
       </c>
     </row>
     <row r="21">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>19.58220322871845</v>
+        <v>20.23459065322065</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.63136984931734</v>
+        <v>12.56806657999363</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20.06294529034809</v>
+        <v>20.56052396870905</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.687704409982107</v>
+        <v>1.714548626781989</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.691733841431289</v>
+        <v>1.742101488896671</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.283589941493754</v>
+        <v>1.336844526133843</v>
       </c>
     </row>
     <row r="22">
@@ -1108,7 +1108,7 @@
         <v>9.001412407142976</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20.68522486820914</v>
+        <v>20.68522486820913</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.9103898292320791</v>
@@ -1117,7 +1117,7 @@
         <v>0.4559145808566323</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6831165752834162</v>
+        <v>0.6831165752834158</v>
       </c>
     </row>
     <row r="23">
@@ -1128,22 +1128,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.86335008783574</v>
+        <v>10.86427383100904</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.448651722580229</v>
+        <v>1.909637735332316</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14.86349034883222</v>
+        <v>15.00734848244097</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.4351387011008338</v>
+        <v>0.4348899131375301</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.09506301541484609</v>
+        <v>0.08148861540195472</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4305646853150334</v>
+        <v>0.4521503940213765</v>
       </c>
     </row>
     <row r="24">
@@ -1154,22 +1154,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>25.67789882410793</v>
+        <v>25.73964741481712</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.261709458768</v>
+        <v>15.61580702556918</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26.59411749672468</v>
+        <v>26.1129843655406</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.61603640162174</v>
+        <v>1.616779160676783</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9583846985569137</v>
+        <v>0.9441453705537258</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.028596741016512</v>
+        <v>0.9788930905970944</v>
       </c>
     </row>
     <row r="25">
@@ -1210,22 +1210,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>8.079510741260677</v>
+        <v>8.270487712896021</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.814562465748272</v>
+        <v>4.843351994755317</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12.05133336774585</v>
+        <v>12.15722255889905</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1.093320192815816</v>
+        <v>1.124772895003243</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6413873410012666</v>
+        <v>0.6509245064370677</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8823372727201214</v>
+        <v>0.8860909273328826</v>
       </c>
     </row>
     <row r="27">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.12261120453878</v>
+        <v>11.20314533470729</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.649319168952053</v>
+        <v>7.781923213065438</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15.59491893536412</v>
+        <v>15.36411793667974</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.833066491864138</v>
+        <v>1.863028058277412</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.228586685578247</v>
+        <v>1.27983718302036</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.290804517108208</v>
+        <v>1.265501239277248</v>
       </c>
     </row>
     <row r="28">
